--- a/RMPP/RMPP_Unit09_Exe9.3B.xlsx
+++ b/RMPP/RMPP_Unit09_Exe9.3B.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_98F3A0369E036EB7F18C7D30C8F2BD8E218C1150" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC3C0AC-AD48-49E4-A613-A2E091BA9986}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="23520" yWindow="1650" windowWidth="26025" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
   <si>
     <t>Diet</t>
   </si>
@@ -68,15 +87,28 @@
   <si>
     <t>Frequency</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Diet B</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Diet A yields a somewhat higher average weight loss, and its distribution looks fairly balanced around the centre, suggesting that most participants experienced a moderate and similar degree of weight reduction. Although there is a slight tilt towards the lower end, negative or large positive outliers do not appear frequent.
+Diet B, on the other hand, has a slightly lower average weight loss and a wider overall range, indicating that results under this regimen can vary more from one individual to the next. Some participants may even have gained weight (indicated by negative values). Overall, Diet A appears to produce a more consistent outcome, while Diet B shows both modest and more extreme weight-loss values.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,19 +182,597 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Diet A</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Diets!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diets!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA47-49D0-B777-4DDA76AFBDBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="50224512"/>
+        <c:axId val="67326336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50224512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Weight Loss (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67326336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67326336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative Frequerncy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50224512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Diet B</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Diets!$K$41:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diets!$L$41:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B27-41DD-80CD-0A96650760B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="50224512"/>
+        <c:axId val="67326336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50224512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Weight Loss (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67326336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67326336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative Frequerncy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50224512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142202</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E45E01-C54D-6F04-4D53-8605CC96A627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="114300"/>
+          <a:ext cx="5380952" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BB3019-0E05-46F9-9E20-A95345FFDE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8423B2B6-C72D-4B45-A3E0-3A25E5B0A84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +810,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +844,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +879,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,18 +1055,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +1093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -506,7 +1123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -520,8 +1137,22 @@
         <f>AVERAGE(B2:B51)</f>
         <v>5.3411999999999988</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="array" ref="I4:I10">FREQUENCY(B2:B51,H4:H10)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="10">
+        <f>I4/I$11</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -535,8 +1166,21 @@
         <f>STDEV(B2:B51)</f>
         <v>2.5356026132351492</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" ref="L5:L10" si="0">I5/I$11</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,8 +1190,21 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -557,8 +1214,25 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="F7" s="6">
+        <f>MIN(B2:B51)</f>
+        <v>-1.7150000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,8 +1242,25 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="F8" s="6">
+        <f>MAX(B2:B51)</f>
+        <v>10.061999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -579,24 +1270,68 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="F9" s="6">
+        <f>F8-F7</f>
+        <v>11.776999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>9</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="H10" s="5">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>6.8810000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM(I4:I10)</f>
+        <v>50</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM(L4:L10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -604,7 +1339,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -612,7 +1347,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +1355,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -628,7 +1363,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -643,7 +1378,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +1393,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -673,7 +1408,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -688,7 +1423,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -703,7 +1438,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -718,7 +1453,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +1468,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -748,7 +1483,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,7 +1498,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +1513,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -793,7 +1528,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -807,8 +1542,11 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="N27" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,8 +1560,20 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="N28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,8 +1587,18 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -852,8 +1612,18 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -867,8 +1637,18 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -882,48 +1662,108 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="3">
         <v>5.0330000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="3">
         <v>5.569</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="3">
         <v>6.7119999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3">
         <v>3.6629999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="3">
         <v>2.7410000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -931,87 +1771,256 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="3">
         <v>5.3490000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="K39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="10">
+        <f>COUNT(B52:B101)</f>
+        <v>50</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="3">
         <v>5.4450000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="E41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="10">
+        <f>AVERAGE(B52:B101)</f>
+        <v>3.709960000000001</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="array" ref="I41:I47">FREQUENCY(B52:B101,H41:H47)</f>
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="10">
+        <f>I41/I$48</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="3">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="10">
+        <f>STDEV(B52:B101)</f>
+        <v>2.7690419986349206</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>10</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" ref="L42:L47" si="1">I42/I$48</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="3">
         <v>3.613</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="H43" s="5">
+        <v>4</v>
+      </c>
+      <c r="I43" s="5">
+        <v>15</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="3">
         <v>7.5679999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6">
+        <f>MIN(B52:B101)</f>
+        <v>-4.1479999999999997</v>
+      </c>
+      <c r="H44" s="5">
+        <v>6</v>
+      </c>
+      <c r="I44" s="5">
+        <v>11</v>
+      </c>
+      <c r="K44" s="5">
+        <v>5</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="3">
         <v>5.8609999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6">
+        <f>MAX(B52:B101)</f>
+        <v>10.539</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8</v>
+      </c>
+      <c r="I45" s="5">
+        <v>8</v>
+      </c>
+      <c r="K45" s="5">
+        <v>7</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="3">
         <v>4.157</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6">
+        <f>F45-F44</f>
+        <v>14.686999999999999</v>
+      </c>
+      <c r="H46" s="5">
+        <v>10</v>
+      </c>
+      <c r="I46" s="5">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5">
+        <v>9</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="3">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="H47" s="5">
+        <v>12</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>11</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="3">
         <v>4.4409999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="H48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="4">
+        <f>SUM(I41:I47)</f>
+        <v>50</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="4">
+        <f>SUM(L41:L47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +2028,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +2036,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +2044,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +2052,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +2060,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +2068,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +2076,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +2084,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +2092,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +2100,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +2108,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +2116,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +2124,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +2132,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +2140,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +2148,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +2156,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +2164,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +2172,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +2180,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +2188,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +2196,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +2204,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +2212,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +2220,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +2228,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +2236,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +2244,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +2252,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +2260,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +2268,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +2276,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +2284,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +2292,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +2300,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +2308,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +2316,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +2324,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +2332,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +2340,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +2348,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +2356,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +2364,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +2372,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +2380,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +2388,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +2396,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +2404,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +2412,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +2420,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +2428,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +2436,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -1436,20 +2445,24 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N28:W37"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1458,12 +2471,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RMPP/RMPP_Unit09_Exe9.3B.xlsx
+++ b/RMPP/RMPP_Unit09_Exe9.3B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Assignment Statistical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_98F3A0369E036EB7F18C7D30C8F2BD8E218C1150" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC3C0AC-AD48-49E4-A613-A2E091BA9986}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="11_98F3A0369E036EB7F18C7D30C8F2BD8E218C1150" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F082CC-5022-41F6-82AF-A5C56FBD6459}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="1650" windowWidth="26025" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="24585" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +188,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,29 +472,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Diets!$K$41:$K$47</c:f>
+              <c:f>Diets!$K$41:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -498,29 +508,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diets!$L$41:$L$47</c:f>
+              <c:f>Diets!$L$41:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -728,13 +744,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1061,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1230,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="14">
         <f>MIN(B2:B51)</f>
         <v>-1.7150000000000001</v>
       </c>
@@ -1242,7 +1258,7 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="14">
         <f>MAX(B2:B51)</f>
         <v>10.061999999999999</v>
       </c>
@@ -1752,6 +1768,7 @@
       <c r="B37" s="3">
         <v>2.7410000000000001</v>
       </c>
+      <c r="I37" s="13"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -1770,6 +1787,7 @@
       <c r="B38" s="3">
         <v>6.2560000000000002</v>
       </c>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -1830,18 +1848,18 @@
         <v>3.709960000000001</v>
       </c>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I41" s="5">
-        <f t="array" ref="I41:I47">FREQUENCY(B52:B101,H41:H47)</f>
-        <v>3</v>
+        <f t="array" ref="I41:I49">FREQUENCY(B52:B101,H41:H49)</f>
+        <v>1</v>
       </c>
       <c r="K41" s="5">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="L41" s="10">
-        <f>I41/I$48</f>
-        <v>0.06</v>
+        <f>I41/I$50</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -1859,17 +1877,17 @@
         <v>2.7690419986349206</v>
       </c>
       <c r="H42" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I42" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="L42" s="10">
-        <f t="shared" ref="L42:L47" si="1">I42/I$48</f>
-        <v>0.2</v>
+        <f t="shared" ref="L42:L49" si="1">I42/I$50</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -1879,18 +1897,20 @@
       <c r="B43" s="3">
         <v>3.613</v>
       </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="10"/>
       <c r="H43" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K43" s="5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L43" s="10">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -1903,22 +1923,22 @@
       <c r="E44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="14">
         <f>MIN(B52:B101)</f>
         <v>-4.1479999999999997</v>
       </c>
       <c r="H44" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I44" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K44" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -1931,22 +1951,22 @@
       <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="14">
         <f>MAX(B52:B101)</f>
         <v>10.539</v>
       </c>
       <c r="H45" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I45" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K45" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L45" s="10">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -1964,17 +1984,17 @@
         <v>14.686999999999999</v>
       </c>
       <c r="H46" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I46" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K46" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L46" s="10">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -1985,17 +2005,17 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="H47" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I47" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K47" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L47" s="10">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -2005,38 +2025,64 @@
       <c r="B48" s="3">
         <v>4.4409999999999998</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="4">
-        <f>SUM(I41:I47)</f>
-        <v>50</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="4">
-        <f>SUM(L41:L47)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H48" s="5">
+        <v>10</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
+      <c r="K48" s="5">
+        <v>9</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3">
         <v>5.875</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H49" s="5">
+        <v>12</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>11</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3">
         <v>5.7149999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="4">
+        <f>SUM(I41:I49)</f>
+        <v>50</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="4">
+        <f>SUM(L41:L49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2090,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -2052,7 +2098,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -2060,7 +2106,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -2068,7 +2114,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2122,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2084,7 +2130,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -2092,7 +2138,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -2100,7 +2146,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -2108,7 +2154,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -2116,7 +2162,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2170,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2178,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -2140,7 +2186,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2496,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
